--- a/SHGraduationWarning/Template/學生學期科目與課規課程代碼差異樣板.xlsx
+++ b/SHGraduationWarning/Template/學生學期科目與課規課程代碼差異樣板.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ischoolProject\ScoreReportDAL\SHGraduationWarning\Template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{809B6C37-FA1D-4BA6-8F81-57EEFDD64C79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412EA9B3-8AA9-4AD8-9E3B-692298F9ABD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,58 +30,61 @@
     <t>學生系統編號</t>
   </si>
   <si>
+    <t>學生年級</t>
+  </si>
+  <si>
+    <t>班級</t>
+  </si>
+  <si>
+    <t>座號</t>
+  </si>
+  <si>
+    <t>姓名</t>
+  </si>
+  <si>
+    <t>成績年級</t>
+  </si>
+  <si>
+    <t>科目</t>
+  </si>
+  <si>
+    <t>科目級別</t>
+  </si>
+  <si>
+    <t>學期科目課程代碼</t>
+  </si>
+  <si>
+    <t>課程代碼</t>
+  </si>
+  <si>
+    <t>課程規劃表名稱</t>
+  </si>
+  <si>
+    <t>分項類別</t>
+  </si>
+  <si>
+    <t>校部訂</t>
+  </si>
+  <si>
+    <t>必選修</t>
+  </si>
+  <si>
+    <t>學分數</t>
+  </si>
+  <si>
+    <t>取得學分</t>
+  </si>
+  <si>
+    <t>學號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>學年度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>學期</t>
-  </si>
-  <si>
-    <t>學生年級</t>
-  </si>
-  <si>
-    <t>班級</t>
-  </si>
-  <si>
-    <t>座號</t>
-  </si>
-  <si>
-    <t>姓名</t>
-  </si>
-  <si>
-    <t>成績年級</t>
-  </si>
-  <si>
-    <t>成績學期</t>
-  </si>
-  <si>
-    <t>科目</t>
-  </si>
-  <si>
-    <t>科目級別</t>
-  </si>
-  <si>
-    <t>學期科目課程代碼</t>
-  </si>
-  <si>
-    <t>課程代碼</t>
-  </si>
-  <si>
-    <t>課程規劃表名稱</t>
-  </si>
-  <si>
-    <t>分項類別</t>
-  </si>
-  <si>
-    <t>校部訂</t>
-  </si>
-  <si>
-    <t>必選修</t>
-  </si>
-  <si>
-    <t>學分數</t>
-  </si>
-  <si>
-    <t>取得學分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -413,17 +416,18 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="6" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" customWidth="1"/>
+    <col min="4" max="6" width="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="6" customWidth="1"/>
+    <col min="9" max="9" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="6" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="12" max="16" width="10.28515625" customWidth="1"/>
@@ -440,55 +444,55 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
